--- a/artfynd/A 57001-2022.xlsx
+++ b/artfynd/A 57001-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1250,6 +1250,466 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112092130</v>
+      </c>
+      <c r="B7" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Sollefteå (Sollefteå), Ång</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>584352.4882331375</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7048231.676015709</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112092161</v>
+      </c>
+      <c r="B8" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Sollefteå (Sollefteå), Ång</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>584329.919621415</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7048274.339291978</v>
+      </c>
+      <c r="S8" t="n">
+        <v>25</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112092586</v>
+      </c>
+      <c r="B9" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Sollefteå (Sollefteå), Ång</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>584400.9675979441</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7048356.949537945</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>17:46</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>17:46</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112092066</v>
+      </c>
+      <c r="B10" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Sollefteå (Sollefteå), Ång</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>584345.5636095351</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7048206.515963284</v>
+      </c>
+      <c r="S10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 57001-2022.xlsx
+++ b/artfynd/A 57001-2022.xlsx
@@ -1252,7 +1252,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112092130</v>
+        <v>112092066</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>584352.4882331375</v>
+        <v>584345.5636095351</v>
       </c>
       <c r="R7" t="n">
-        <v>7048231.676015709</v>
+        <v>7048206.515963284</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1365,7 +1365,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112092161</v>
+        <v>112092130</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1398,11 +1398,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1410,10 +1406,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>584329.919621415</v>
+        <v>584352.4882331375</v>
       </c>
       <c r="R8" t="n">
-        <v>7048274.339291978</v>
+        <v>7048231.676015709</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1599,7 +1595,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112092066</v>
+        <v>112092161</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1632,7 +1628,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>584345.5636095351</v>
+        <v>584329.919621415</v>
       </c>
       <c r="R10" t="n">
-        <v>7048206.515963284</v>
+        <v>7048274.339291978</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 57001-2022.xlsx
+++ b/artfynd/A 57001-2022.xlsx
@@ -1252,7 +1252,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112092066</v>
+        <v>112092161</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1285,7 +1285,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1293,10 +1297,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>584345.5636095351</v>
+        <v>584329.919621415</v>
       </c>
       <c r="R7" t="n">
-        <v>7048206.515963284</v>
+        <v>7048274.339291978</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1328,7 +1332,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1338,7 +1342,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1365,7 +1369,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112092130</v>
+        <v>112092586</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1398,7 +1402,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1406,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>584352.4882331375</v>
+        <v>584400.9675979441</v>
       </c>
       <c r="R8" t="n">
-        <v>7048231.676015709</v>
+        <v>7048356.949537945</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1441,7 +1449,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1451,7 +1459,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1478,7 +1486,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112092586</v>
+        <v>112092130</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1511,11 +1519,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1523,10 +1527,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>584400.9675979441</v>
+        <v>584352.4882331375</v>
       </c>
       <c r="R9" t="n">
-        <v>7048356.949537945</v>
+        <v>7048231.676015709</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1558,7 +1562,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1568,7 +1572,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1595,7 +1599,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112092161</v>
+        <v>112092066</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1628,11 +1632,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>584329.919621415</v>
+        <v>584345.5636095351</v>
       </c>
       <c r="R10" t="n">
-        <v>7048274.339291978</v>
+        <v>7048206.515963284</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 57001-2022.xlsx
+++ b/artfynd/A 57001-2022.xlsx
@@ -1252,7 +1252,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112092161</v>
+        <v>112092130</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1285,11 +1285,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1297,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>584329.919621415</v>
+        <v>584352</v>
       </c>
       <c r="R7" t="n">
-        <v>7048274.339291978</v>
+        <v>7048232</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1369,7 +1365,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112092586</v>
+        <v>112092161</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1404,7 +1400,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -1414,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>584400.9675979441</v>
+        <v>584330</v>
       </c>
       <c r="R8" t="n">
-        <v>7048356.949537945</v>
+        <v>7048274</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1449,7 +1445,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1459,7 +1455,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1486,7 +1482,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112092130</v>
+        <v>112092586</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1519,7 +1515,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>584352.4882331375</v>
+        <v>584401</v>
       </c>
       <c r="R9" t="n">
-        <v>7048231.676015709</v>
+        <v>7048357</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>584345.5636095351</v>
+        <v>584346</v>
       </c>
       <c r="R10" t="n">
-        <v>7048206.515963284</v>
+        <v>7048207</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>

--- a/artfynd/A 57001-2022.xlsx
+++ b/artfynd/A 57001-2022.xlsx
@@ -1252,10 +1252,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112092130</v>
+        <v>112092161</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,7 +1285,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1293,10 +1297,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>584352</v>
+        <v>584330</v>
       </c>
       <c r="R7" t="n">
-        <v>7048232</v>
+        <v>7048274</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1365,10 +1369,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112092161</v>
+        <v>112092066</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,11 +1402,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>584330</v>
+        <v>584346</v>
       </c>
       <c r="R8" t="n">
-        <v>7048274</v>
+        <v>7048207</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1482,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112092586</v>
+        <v>112092130</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,11 +1515,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1527,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>584401</v>
+        <v>584352</v>
       </c>
       <c r="R9" t="n">
-        <v>7048357</v>
+        <v>7048232</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1562,7 +1558,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1572,7 +1568,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1599,10 +1595,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112092066</v>
+        <v>112092586</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,7 +1628,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>584346</v>
+        <v>584401</v>
       </c>
       <c r="R10" t="n">
-        <v>7048207</v>
+        <v>7048357</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 57001-2022.xlsx
+++ b/artfynd/A 57001-2022.xlsx
@@ -1255,7 +1255,7 @@
         <v>112092161</v>
       </c>
       <c r="B7" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112092066</v>
+        <v>112092130</v>
       </c>
       <c r="B8" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>584346</v>
+        <v>584352</v>
       </c>
       <c r="R8" t="n">
-        <v>7048207</v>
+        <v>7048232</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1482,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112092130</v>
+        <v>112092066</v>
       </c>
       <c r="B9" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>584352</v>
+        <v>584346</v>
       </c>
       <c r="R9" t="n">
-        <v>7048232</v>
+        <v>7048207</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1598,7 +1598,7 @@
         <v>112092586</v>
       </c>
       <c r="B10" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
